--- a/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/05_ユーザー管理.xlsx
+++ b/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/05_ユーザー管理.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoji\Desktop\機能仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoji\Documents\資料\機能仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="ユーザー管理" sheetId="7" r:id="rId3"/>
     <sheet name="追加" sheetId="9" r:id="rId4"/>
     <sheet name="Message" sheetId="6" r:id="rId5"/>
+    <sheet name="簡易画面イメージ(ユーザー管理)" sheetId="11" r:id="rId6"/>
+    <sheet name="改訂履歴" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="212">
   <si>
     <t>1.機能概要</t>
     <rPh sb="2" eb="4">
@@ -106,16 +108,10 @@
   </si>
   <si>
     <t>Caution</t>
-  </si>
-  <si>
-    <t>Caution</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>OK</t>
-  </si>
-  <si>
-    <t>OK</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -132,10 +128,6 @@
   </si>
   <si>
     <t>Message Text</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>文字数の制限を超えています。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -189,9 +181,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>削除可能なユーザー情報がありません。</t>
-  </si>
-  <si>
     <t>　　②上記ユーザーによって新規ユーザー追加、不要なユーザーを削除することができる。</t>
     <rPh sb="3" eb="5">
       <t>ジョウキ</t>
@@ -258,10 +247,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フォーカスで当てられた行のユーザー情報を削除するボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入力可能な文字数</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
@@ -312,9 +297,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ErrorMessage</t>
-  </si>
-  <si>
     <t>エラーが起こるタイミング</t>
     <rPh sb="4" eb="5">
       <t>オ</t>
@@ -475,31 +457,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(1)ユーザー情報内のセルをクリックした場合、その行全体が選択状態となる。</t>
-    <rPh sb="7" eb="9">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>セルは編集不可</t>
     <rPh sb="3" eb="5">
       <t>ヘンシュウ</t>
@@ -510,16 +467,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コーヒー購入合計</t>
-    <rPh sb="4" eb="6">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コーヒーチケット残数</t>
     <rPh sb="8" eb="9">
       <t>ザン</t>
@@ -530,40 +477,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録された順に未使用の数字の若い順に番号が割り当てられる、表示は001とする。</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ミシヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ワカ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>最後に枚を付与し、表示する。</t>
     <rPh sb="0" eb="2">
       <t>サイゴ</t>
@@ -735,10 +648,6 @@
     <rPh sb="8" eb="9">
       <t>ヨウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1271,12 +1180,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">1.テキストボックスからフォーカスを外した際、文字制限を超過していた場合、表示する。
-2.OKを押下するとフォーカス状態に戻る。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">1.テキストボックスからフォーカスを外した際、使用不可の文字が入力されていた場合、表示する。
 2.OKを押下するとフォーカス状態に戻る。
 </t>
@@ -1317,45 +1220,6 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.一覧にユーザー情報が一つも存在しない時、削除ボタンを押下すると表示する。
-2.削除は実行されない。
-</t>
-    <rPh sb="2" eb="4">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1620,43 +1484,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(1)上記表のNo4の一覧表内にユーザー情報がない時、削除ボタンが押下された場合エラーを表示する。</t>
-    <rPh sb="3" eb="5">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>イチランヒョウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　　→エラーについては[Message]シートのA-1を参照する。[A-1]</t>
     <rPh sb="28" eb="30">
       <t>サンショウ</t>
@@ -1664,20 +1491,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　　→エラーについては[Message]シートのA-2を参照する。[A-2]</t>
-    <rPh sb="28" eb="30">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　　→メッセージについては[Message]シートのA-3を参照する。[A-3]</t>
-  </si>
-  <si>
-    <t>[Message]シートB-1[B-1]</t>
-  </si>
-  <si>
-    <t>[Message]シートB-2[B-2]</t>
   </si>
   <si>
     <t>　　→エラーについては[Message]シートのB-3を参照する。[B-3]</t>
@@ -1721,13 +1535,7 @@
     <t>A-1</t>
   </si>
   <si>
-    <t>A-2</t>
-  </si>
-  <si>
     <t>A-3</t>
-  </si>
-  <si>
-    <t>B-1</t>
   </si>
   <si>
     <t>B-2</t>
@@ -2032,11 +1840,714 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>改訂分類</t>
+    <rPh sb="0" eb="2">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当レビュー</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂内容</t>
+    <rPh sb="0" eb="2">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂前</t>
+    <rPh sb="0" eb="3">
+      <t>カイテイマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂後</t>
+    <rPh sb="0" eb="3">
+      <t>カイテイゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一回レビュー指摘対応</t>
+    <rPh sb="0" eb="3">
+      <t>ダイイッカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー管理画面表</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[ユーザー管理]
+ユーザー管理画面表内の削除行の「フォーカスで当てられた行のユーザー情報を削除するボタン」文言
+</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>モンゴン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[ユーザー管理]
+ユーザー管理画面表内の削除行の「選択された行のユーザー情報を削除するボタン」文言変更
+</t>
+    <rPh sb="25" eb="27">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今月度コーヒー
+購入合計</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーヒーチケット残数</t>
+    <rPh sb="8" eb="10">
+      <t>ザンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー
+登録番号</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田 翔史</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>999999枚</t>
+    <rPh sb="6" eb="7">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0枚</t>
+    <rPh sb="1" eb="2">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期画面</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)削除のオペレーション</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①行の選択</t>
+    <rPh sb="1" eb="2">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②削除ボタンを実行</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[ユーザー管理]
+(*3)(1)
+「ユーザー情報内のセルをクリックした場合、その行全体が選択状態となる。」文言
+</t>
+    <rPh sb="53" eb="55">
+      <t>モンゴン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[ユーザー管理]
+(*3)(1)
+「ユーザー情報内のセルをクリックした場合、その行全体が選択状態となる。(セル全体の背景色を水色系にする。[簡易画面イメージ(ユーザー管理)]シート(1)の①)を参照)」文言変更
+</t>
+    <rPh sb="101" eb="103">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[ユーザー管理]
+(*3)(2)仕様
+「登録された順に未使用の数字の若い順に番号が割り当てられる、表示は001とする。」
+</t>
+    <rPh sb="16" eb="18">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ユーザー管理]
+(*3)(2)仕様
+「登録された順に数字が割り当てられる、表示は001とする。
+(例)001、002、003で002が削除された時、001、003となる」</t>
+    <rPh sb="16" eb="18">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[ユーザー管理]
+(*3)(2)セル名
+「コーヒー購入合計」
+</t>
+    <rPh sb="18" eb="19">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[Message]
+「文字数の制限を超えています。」メッセージ
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Message]
+「文字数の制限を超えています。」メッセージ行ごと削除。</t>
+    <rPh sb="31" eb="32">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[追加]
+(*1)(1)及び、(*4)(1)表内「ErrorMessage」
+</t>
+    <rPh sb="1" eb="3">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一回レビュー指摘対応</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>イチカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ユーザー管理]
+(*3)(2)セル名
+「今月度コーヒー購入合計」文言変更</t>
+    <rPh sb="18" eb="19">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コンゲツ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー後の発生動作(改定A-18)</t>
+    <rPh sb="3" eb="4">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21文字目以降は入力できなくなる(改定A-18)</t>
+    <rPh sb="2" eb="5">
+      <t>モジメ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Message]シートB-2[B-2]のメッセージ表示(改定A-18)</t>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー後の発生動作(改定A-18)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16文字目以降は入力できなくなる(改定A-18)</t>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[追加]
+(*1)(1)及び、(*4)(1)表内
+「エラー後の発生動作」文言変更
+それに伴い項目下の文言も併せて変更。
+・「[Message]シートB-1[B-1]」→「16文字目以降は入力できなくなる」
+・「[Message]シートB-1[B-1]」→「21文字目以降は入力できなくなる」
+・「[Message]シートB-2[B-2]」→「[Message]シートB-2[B-2]のメッセージ表示」</t>
+    <rPh sb="1" eb="3">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[簡易画面イメージ(ユーザー管理)]
+-
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[簡易画面イメージ(ユーザー管理)]
+シート追加。</t>
+    <rPh sb="22" eb="24">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[ユーザー管理]
+(*2)(1)の文言変更
+</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ユーザー管理]
+(*2)(1)の文言変更
+メッセージの表示からボタンを押下できなくなる仕様に変更の旨の記述に変更。</t>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ムネ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[Message]
+「削除可能なユーザー情報がありません。」メッセージ
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Message]
+「削除可能なユーザー情報がありません。」メッセージ行ごと削除。</t>
+    <rPh sb="35" eb="36">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択された行のユーザー情報を削除するボタン(改定A-21)</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)上記表のNo4の一覧表内にユーザー情報がない時、削除ボタンは押下できなくなる。(改定A-22)</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>イチランヒョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)ユーザー情報内のセルをクリックした場合、その行全体が選択状態となる。(セル全体の背景色を水色系にする。[簡易画面イメージ(ユーザー管理)]シート(1)の①)を参照)(改定A-23)</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>ハイケイショク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ミズイロ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録された順に数字が割り当てられる、表示は001とする。
+(例)001、002、003で002が削除された時、001、003となる(改定A-24)</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>カイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今月度コーヒー購入合計(改定A-25)</t>
+    <rPh sb="0" eb="2">
+      <t>コンゲツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID(英数字20文字以内)(改定A-26)</t>
+    <rPh sb="3" eb="6">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(改定A-27)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(改定A-28)</t>
+    <rPh sb="1" eb="3">
+      <t>カイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面イメージ(ユーザー管理)</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(改定A-29)</t>
+  </si>
+  <si>
+    <t>尾添 玲奈</t>
+    <rPh sb="0" eb="2">
+      <t>オゾエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>レナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永井 健二</t>
+    <rPh sb="0" eb="2">
+      <t>ナガイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2080,7 +2591,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2093,8 +2604,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2143,13 +2666,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2198,50 +2769,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2258,6 +2913,1026 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="グループ化 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D12496A-40DB-458E-9A2D-5A543E5A5A87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="838201" y="619125"/>
+          <a:ext cx="4962524" cy="1943100"/>
+          <a:chOff x="838201" y="619125"/>
+          <a:chExt cx="4962524" cy="1943100"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="正方形/長方形 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D89C415-6285-40A4-BF5E-B20098A2DE92}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="838201" y="619125"/>
+            <a:ext cx="4962524" cy="1943100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="テキスト ボックス 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF2D1325-FF92-40BA-A62E-46B04C3C742D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="895350" y="685800"/>
+            <a:ext cx="1066800" cy="275717"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ユーザー管理</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{108E3EA9-FE0A-4F42-8CC9-C9A7BDFE8564}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5210175" y="676275"/>
+            <a:ext cx="504825" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>追加</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{011E4177-6110-4330-9E0E-9E3E46BA6CCD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1390650" y="2190751"/>
+            <a:ext cx="485775" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>削除</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="正方形/長方形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B67FDF0-2410-434E-9191-7B8BC385D6FE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5257801" y="2257425"/>
+            <a:ext cx="457199" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>戻る</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="グループ化 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C4BA97D-E87B-4146-B47F-D3C3666C2E10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="828676" y="3219450"/>
+          <a:ext cx="4972049" cy="1962150"/>
+          <a:chOff x="838201" y="619125"/>
+          <a:chExt cx="4962524" cy="1943100"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD7AB1E4-5212-408E-AB31-FDE8524B9A3C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="838201" y="619125"/>
+            <a:ext cx="4962524" cy="1943100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="テキスト ボックス 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF99A7E-5253-41F3-9355-BDD031DA2F6A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="895350" y="685800"/>
+            <a:ext cx="1066800" cy="275717"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ユーザー管理</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="正方形/長方形 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB015D17-E08E-4E0A-BC40-CACF9D594619}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5210175" y="676275"/>
+            <a:ext cx="504825" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>追加</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="正方形/長方形 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C3DF1E-0A11-466E-9A1A-F418A474EBBD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1390650" y="2190751"/>
+            <a:ext cx="485775" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>削除</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="正方形/長方形 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E25A087-EAC6-497A-8945-BFEB977A3CE4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5257801" y="2257425"/>
+            <a:ext cx="457199" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>戻る</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1314450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E04FC8-845C-477C-8BC7-13882574F2E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4857750" y="3495675"/>
+          <a:ext cx="2057400" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1733550" cy="800100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E78879FE-82C4-420B-BB03-990B57ECBC30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324600" y="3124200"/>
+          <a:ext cx="1733550" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>選択した際、このような表示になる。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="グループ化 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4748ED85-BBBA-4890-AF0E-5FC4A02ABE8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="847725" y="5686425"/>
+          <a:ext cx="4962525" cy="1876425"/>
+          <a:chOff x="838201" y="619125"/>
+          <a:chExt cx="4962524" cy="1943100"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="正方形/長方形 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C37000FF-75BA-42F8-AF51-C9470D865C79}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="838201" y="619125"/>
+            <a:ext cx="4962524" cy="1943100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="テキスト ボックス 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ABA0EF3-F82B-44C6-A4A3-F322BA6E152C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="895350" y="685800"/>
+            <a:ext cx="1066800" cy="275717"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ユーザー管理</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="正方形/長方形 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5536755C-D1A9-4FEE-A849-58E1AF15BF92}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5210175" y="676274"/>
+            <a:ext cx="504825" cy="297934"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>追加</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="正方形/長方形 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F252B70-32CD-48AB-99F5-0139FC8C4083}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1390650" y="2190752"/>
+            <a:ext cx="485775" cy="253111"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>削除</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="正方形/長方形 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{477FC15B-6481-4A5F-BA15-9F0A7486D005}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5257801" y="2247562"/>
+            <a:ext cx="457199" cy="265346"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>戻る</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2525,7 +4200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -2537,7 +4212,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
@@ -2547,17 +4222,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2582,7 +4257,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -2602,7 +4277,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2618,8 +4293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="K19" sqref="J13:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2627,7 +4302,7 @@
     <col min="1" max="1" width="9" style="3" customWidth="1"/>
     <col min="2" max="2" width="3.75" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.75" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.375" style="3" bestFit="1" customWidth="1"/>
@@ -2636,7 +4311,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2644,12 +4319,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -2659,111 +4334,105 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="7">
-        <f>ROW()-9</f>
-        <v>1</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B11" s="7">
-        <f>ROW()-9</f>
-        <v>2</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>162</v>
+        <f>ROW()-10</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>158</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" s="7">
-        <f>ROW()-9</f>
-        <v>3</v>
+        <f t="shared" ref="B12:B15" si="0">ROW()-10</f>
+        <v>2</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B13" s="7">
-        <f>ROW()-9</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>200</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" s="7">
-        <f>ROW()-9</f>
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="7">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="C15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -2772,6 +4441,9 @@
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -2780,20 +4452,18 @@
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="3" t="s">
-        <v>137</v>
-      </c>
+      <c r="A19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -2801,111 +4471,122 @@
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+      <c r="B20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="9"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>160</v>
-      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="3" t="s">
-        <v>136</v>
+      <c r="A22" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="3" t="s">
-        <v>138</v>
-      </c>
+      <c r="B23" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B26" s="3" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B28" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="B31" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B33" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C35" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="27" x14ac:dyDescent="0.15">
       <c r="C36" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>54</v>
+        <v>45</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C37" s="10" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C38" s="10" t="s">
-        <v>55</v>
+      <c r="C38" s="34" t="s">
+        <v>204</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C39" s="10" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2919,8 +4600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2931,7 +4612,7 @@
     <col min="4" max="4" width="72.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60.625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="58.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -2942,12 +4623,12 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -2957,21 +4638,21 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -2983,7 +4664,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>7</v>
@@ -2995,13 +4676,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -3010,13 +4691,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -3024,14 +4705,14 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>75</v>
+      <c r="C13" s="23" t="s">
+        <v>205</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -3040,13 +4721,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -3055,10 +4736,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>7</v>
@@ -3070,13 +4751,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -3085,10 +4766,10 @@
         <v>8</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>7</v>
@@ -3100,13 +4781,13 @@
         <v>9</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -3115,10 +4796,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>7</v>
@@ -3130,13 +4811,13 @@
         <v>11</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -3149,61 +4830,61 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C26" s="10"/>
       <c r="D26" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C27" s="10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D27" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="F27" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>140</v>
+        <v>41</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C28" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="F28" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>141</v>
+        <v>42</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -3222,7 +4903,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -3239,7 +4920,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B33" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
@@ -3251,7 +4932,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
@@ -3268,7 +4949,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B37" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
@@ -3288,28 +4969,28 @@
         <v>6</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B40" s="13"/>
       <c r="C40" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -3321,7 +5002,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
@@ -3338,7 +5019,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
@@ -3356,50 +5037,50 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C46" s="10"/>
       <c r="D46" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C47" s="10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>140</v>
+        <v>41</v>
+      </c>
+      <c r="G47" s="34" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C48" s="10" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>141</v>
+        <v>78</v>
+      </c>
+      <c r="G48" s="34" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
@@ -3411,7 +5092,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
@@ -3428,7 +5109,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
@@ -3438,7 +5119,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
@@ -3455,7 +5136,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B55" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
@@ -3465,7 +5146,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
@@ -3482,7 +5163,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
@@ -3492,7 +5173,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
@@ -3502,12 +5183,12 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B63" s="3" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
@@ -3524,256 +5205,624 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="23.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="2" max="2" width="43.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="54"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="39" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+      <c r="B6" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="46"/>
+    </row>
+    <row r="7" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="B7" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="B8" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="B10" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="39" customWidth="1"/>
+    <col min="2" max="2" width="9" style="39"/>
+    <col min="3" max="3" width="9" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="39"/>
+    <col min="6" max="6" width="18.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="39" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C7" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C8" s="41">
+        <v>1</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="42">
+        <v>999999</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C9" s="41">
+        <v>2</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="42">
+        <v>0</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C10" s="41">
+        <v>3</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="42">
+        <v>999999</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C20" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C21" s="41">
+        <v>1</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="42">
+        <v>999999</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C22" s="35">
+        <v>2</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22" s="37">
+        <v>0</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C23" s="41">
+        <v>3</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="42">
+        <v>999999</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="39" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C33" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C34" s="41">
+        <v>1</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" s="42">
+        <v>999999</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C35" s="41">
+        <v>3</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="42">
+        <v>999999</v>
+      </c>
+      <c r="F35" s="43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="16">
-        <f>ROW()-3</f>
-        <v>1</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="20"/>
-    </row>
-    <row r="6" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="B6" s="25">
-        <v>2</v>
-      </c>
-      <c r="C6" s="26" t="s">
+      <c r="D2" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="58"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="108" x14ac:dyDescent="0.15">
+      <c r="B4" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="26">
+        <v>21</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="29">
+        <v>42859</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="B5" s="28"/>
+      <c r="C5" s="26">
+        <v>22</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="31">
+        <v>42859</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="28"/>
+      <c r="C6" s="26">
+        <v>23</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="29">
+        <v>42859</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="108" x14ac:dyDescent="0.15">
+      <c r="B7" s="28"/>
+      <c r="C7" s="26">
+        <v>24</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="31">
+        <v>42859</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="B8" s="28"/>
+      <c r="C8" s="26">
+        <v>25</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="31">
+        <v>42859</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="189" x14ac:dyDescent="0.15">
+      <c r="B9" s="28"/>
+      <c r="C9" s="26">
         <v>26</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="81" x14ac:dyDescent="0.15">
-      <c r="B7" s="25">
-        <v>3</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="B8" s="25">
-        <v>4</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="B9" s="25">
-        <v>5</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="B10" s="25">
-        <v>6</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B11" s="6">
-        <v>7</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="B12" s="6">
-        <v>8</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>154</v>
+      <c r="D9" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="31">
+        <v>42859</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="28"/>
+      <c r="C10" s="26">
+        <v>27</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="31">
+        <v>42859</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B11" s="28"/>
+      <c r="C11" s="26">
+        <v>28</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="31">
+        <v>42859</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26">
+        <v>29</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="31">
+        <v>42859</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="F4:F5"/>
+  <mergeCells count="1">
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/05_ユーザー管理.xlsx
+++ b/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/05_ユーザー管理.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoji\Documents\資料\機能仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\13.Git\TeamCafeAuLait\01_document\04_ソフトウェア実装プロセス\01_ソフトウェア要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2543,7 +2543,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000"/>
@@ -2935,7 +2935,7 @@
         <xdr:cNvPr id="8" name="グループ化 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D12496A-40DB-458E-9A2D-5A543E5A5A87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D12496A-40DB-458E-9A2D-5A543E5A5A87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2943,8 +2943,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="838201" y="619125"/>
-          <a:ext cx="4962524" cy="1943100"/>
+          <a:off x="787401" y="581025"/>
+          <a:ext cx="4565649" cy="1819275"/>
           <a:chOff x="838201" y="619125"/>
           <a:chExt cx="4962524" cy="1943100"/>
         </a:xfrm>
@@ -2954,7 +2954,7 @@
           <xdr:cNvPr id="2" name="正方形/長方形 1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D89C415-6285-40A4-BF5E-B20098A2DE92}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D89C415-6285-40A4-BF5E-B20098A2DE92}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3005,7 +3005,7 @@
           <xdr:cNvPr id="3" name="テキスト ボックス 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF2D1325-FF92-40BA-A62E-46B04C3C742D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF2D1325-FF92-40BA-A62E-46B04C3C742D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3053,7 +3053,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{108E3EA9-FE0A-4F42-8CC9-C9A7BDFE8564}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{108E3EA9-FE0A-4F42-8CC9-C9A7BDFE8564}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3108,7 +3108,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{011E4177-6110-4330-9E0E-9E3E46BA6CCD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{011E4177-6110-4330-9E0E-9E3E46BA6CCD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3163,7 +3163,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B67FDF0-2410-434E-9191-7B8BC385D6FE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B67FDF0-2410-434E-9191-7B8BC385D6FE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3234,7 +3234,7 @@
         <xdr:cNvPr id="9" name="グループ化 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C4BA97D-E87B-4146-B47F-D3C3666C2E10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C4BA97D-E87B-4146-B47F-D3C3666C2E10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3242,8 +3242,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="828676" y="3219450"/>
-          <a:ext cx="4972049" cy="1962150"/>
+          <a:off x="777876" y="3006725"/>
+          <a:ext cx="4575174" cy="1825625"/>
           <a:chOff x="838201" y="619125"/>
           <a:chExt cx="4962524" cy="1943100"/>
         </a:xfrm>
@@ -3253,7 +3253,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD7AB1E4-5212-408E-AB31-FDE8524B9A3C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD7AB1E4-5212-408E-AB31-FDE8524B9A3C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3304,7 +3304,7 @@
           <xdr:cNvPr id="11" name="テキスト ボックス 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF99A7E-5253-41F3-9355-BDD031DA2F6A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CF99A7E-5253-41F3-9355-BDD031DA2F6A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3352,7 +3352,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB015D17-E08E-4E0A-BC40-CACF9D594619}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB015D17-E08E-4E0A-BC40-CACF9D594619}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3407,7 +3407,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C3DF1E-0A11-466E-9A1A-F418A474EBBD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32C3DF1E-0A11-466E-9A1A-F418A474EBBD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3462,7 +3462,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E25A087-EAC6-497A-8945-BFEB977A3CE4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E25A087-EAC6-497A-8945-BFEB977A3CE4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3533,7 +3533,7 @@
         <xdr:cNvPr id="16" name="直線コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E04FC8-845C-477C-8BC7-13882574F2E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95E04FC8-845C-477C-8BC7-13882574F2E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3583,7 +3583,7 @@
         <xdr:cNvPr id="17" name="テキスト ボックス 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E78879FE-82C4-420B-BB03-990B57ECBC30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E78879FE-82C4-420B-BB03-990B57ECBC30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3651,7 +3651,7 @@
         <xdr:cNvPr id="18" name="グループ化 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4748ED85-BBBA-4890-AF0E-5FC4A02ABE8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4748ED85-BBBA-4890-AF0E-5FC4A02ABE8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3659,8 +3659,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="847725" y="5686425"/>
-          <a:ext cx="4962525" cy="1876425"/>
+          <a:off x="796925" y="5299075"/>
+          <a:ext cx="4565650" cy="1752600"/>
           <a:chOff x="838201" y="619125"/>
           <a:chExt cx="4962524" cy="1943100"/>
         </a:xfrm>
@@ -3670,7 +3670,7 @@
           <xdr:cNvPr id="19" name="正方形/長方形 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C37000FF-75BA-42F8-AF51-C9470D865C79}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C37000FF-75BA-42F8-AF51-C9470D865C79}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3721,7 +3721,7 @@
           <xdr:cNvPr id="20" name="テキスト ボックス 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ABA0EF3-F82B-44C6-A4A3-F322BA6E152C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1ABA0EF3-F82B-44C6-A4A3-F322BA6E152C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3769,7 +3769,7 @@
           <xdr:cNvPr id="21" name="正方形/長方形 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5536755C-D1A9-4FEE-A849-58E1AF15BF92}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5536755C-D1A9-4FEE-A849-58E1AF15BF92}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3824,7 +3824,7 @@
           <xdr:cNvPr id="22" name="正方形/長方形 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F252B70-32CD-48AB-99F5-0139FC8C4083}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F252B70-32CD-48AB-99F5-0139FC8C4083}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3879,7 +3879,7 @@
           <xdr:cNvPr id="23" name="正方形/長方形 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{477FC15B-6481-4A5F-BA15-9F0A7486D005}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{477FC15B-6481-4A5F-BA15-9F0A7486D005}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3930,6 +3930,82 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>550164</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>36671</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7759700"/>
+          <a:ext cx="18285714" cy="11428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>394589</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>157321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19097625"/>
+          <a:ext cx="18285714" cy="11428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4204,33 +4280,33 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="3" customWidth="1"/>
     <col min="2" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" ht="14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -4249,33 +4325,33 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="3" customWidth="1"/>
     <col min="2" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -4297,52 +4373,52 @@
       <selection activeCell="K19" sqref="J13:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.36328125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
@@ -4356,7 +4432,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
         <f>ROW()-10</f>
         <v>1</v>
@@ -4371,7 +4447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
         <f t="shared" ref="B12:B15" si="0">ROW()-10</f>
         <v>2</v>
@@ -4386,7 +4462,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4401,7 +4477,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4416,7 +4492,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4432,7 +4508,7 @@
       </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -4440,7 +4516,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>141</v>
       </c>
@@ -4451,7 +4527,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -4459,7 +4535,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>95</v>
       </c>
@@ -4470,7 +4546,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -4480,7 +4556,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -4488,39 +4564,39 @@
       <c r="F21" s="8"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" s="39" t="s">
         <v>201</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" s="39" t="s">
         <v>202</v>
       </c>
@@ -4529,12 +4605,12 @@
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C35" s="6" t="s">
         <v>51</v>
       </c>
@@ -4545,7 +4621,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:5" ht="26" x14ac:dyDescent="0.2">
       <c r="C36" s="10" t="s">
         <v>45</v>
       </c>
@@ -4556,7 +4632,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C37" s="10" t="s">
         <v>54</v>
       </c>
@@ -4567,7 +4643,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C38" s="34" t="s">
         <v>204</v>
       </c>
@@ -4578,7 +4654,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C39" s="10" t="s">
         <v>48</v>
       </c>
@@ -4604,44 +4680,44 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="41.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.36328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>63</v>
       </c>
@@ -4655,7 +4731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
         <f t="shared" ref="B10:B20" si="0">ROW()-9</f>
         <v>1</v>
@@ -4670,7 +4746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4685,7 +4761,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4700,7 +4776,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4715,7 +4791,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4730,7 +4806,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4745,7 +4821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4760,7 +4836,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4775,7 +4851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4790,7 +4866,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4805,7 +4881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4820,7 +4896,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="13"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -4828,17 +4904,17 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C26" s="10"/>
       <c r="D26" s="6" t="s">
         <v>36</v>
@@ -4853,7 +4929,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C27" s="10" t="s">
         <v>32</v>
       </c>
@@ -4870,7 +4946,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C28" s="10" t="s">
         <v>33</v>
       </c>
@@ -4887,21 +4963,21 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>147</v>
       </c>
@@ -4911,26 +4987,26 @@
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>153</v>
       </c>
@@ -4940,14 +5016,14 @@
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
         <v>93</v>
       </c>
@@ -4957,14 +5033,14 @@
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C39" s="6" t="s">
         <v>6</v>
       </c>
@@ -4978,7 +5054,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B40" s="13"/>
       <c r="C40" s="6" t="s">
         <v>87</v>
@@ -4993,14 +5069,14 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>154</v>
       </c>
@@ -5010,14 +5086,14 @@
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>92</v>
       </c>
@@ -5027,14 +5103,14 @@
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C46" s="10"/>
       <c r="D46" s="6" t="s">
         <v>36</v>
@@ -5049,7 +5125,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C47" s="10" t="s">
         <v>32</v>
       </c>
@@ -5066,7 +5142,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C48" s="10" t="s">
         <v>77</v>
       </c>
@@ -5083,14 +5159,14 @@
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>155</v>
       </c>
@@ -5100,14 +5176,14 @@
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
         <v>108</v>
       </c>
@@ -5117,7 +5193,7 @@
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>126</v>
       </c>
@@ -5127,14 +5203,14 @@
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
         <v>94</v>
       </c>
@@ -5144,7 +5220,7 @@
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
         <v>127</v>
       </c>
@@ -5154,14 +5230,14 @@
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
         <v>123</v>
       </c>
@@ -5171,7 +5247,7 @@
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>156</v>
       </c>
@@ -5181,12 +5257,12 @@
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
         <v>128</v>
       </c>
@@ -5211,27 +5287,27 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="3" customWidth="1"/>
-    <col min="2" max="2" width="43.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7265625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.08984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" s="44"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
@@ -5251,7 +5327,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="53" t="s">
         <v>97</v>
       </c>
@@ -5271,7 +5347,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="54"/>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
@@ -5282,7 +5358,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="78" x14ac:dyDescent="0.2">
       <c r="B6" s="19" t="s">
         <v>102</v>
       </c>
@@ -5303,7 +5379,7 @@
       </c>
       <c r="H6" s="46"/>
     </row>
-    <row r="7" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="52" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
         <v>104</v>
       </c>
@@ -5326,7 +5402,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="52" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
         <v>109</v>
       </c>
@@ -5346,7 +5422,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="65" x14ac:dyDescent="0.2">
       <c r="B9" s="19" t="s">
         <v>111</v>
       </c>
@@ -5366,7 +5442,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="52" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="s">
         <v>116</v>
       </c>
@@ -5404,22 +5480,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="39" customWidth="1"/>
     <col min="2" max="2" width="9" style="39"/>
     <col min="3" max="3" width="9" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="39"/>
-    <col min="6" max="6" width="18.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" style="39" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>208</v>
       </c>
@@ -5427,12 +5503,12 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="39" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="39" x14ac:dyDescent="0.2">
       <c r="C7" s="22" t="s">
         <v>169</v>
       </c>
@@ -5446,7 +5522,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C8" s="41">
         <v>1</v>
       </c>
@@ -5460,7 +5536,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C9" s="41">
         <v>2</v>
       </c>
@@ -5474,7 +5550,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" s="41">
         <v>3</v>
       </c>
@@ -5488,17 +5564,17 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="39" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="39" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" ht="39" x14ac:dyDescent="0.2">
       <c r="C20" s="22" t="s">
         <v>169</v>
       </c>
@@ -5512,7 +5588,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C21" s="41">
         <v>1</v>
       </c>
@@ -5526,7 +5602,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C22" s="35">
         <v>2</v>
       </c>
@@ -5540,7 +5616,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C23" s="41">
         <v>3</v>
       </c>
@@ -5554,12 +5630,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="39" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:6" ht="39" x14ac:dyDescent="0.2">
       <c r="C33" s="22" t="s">
         <v>169</v>
       </c>
@@ -5573,7 +5649,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" s="41">
         <v>1</v>
       </c>
@@ -5587,7 +5663,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35" s="41">
         <v>3</v>
       </c>
@@ -5617,16 +5693,16 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.625" customWidth="1"/>
+    <col min="4" max="4" width="22.36328125" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" customWidth="1"/>
+    <col min="6" max="6" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>157</v>
       </c>
@@ -5644,7 +5720,7 @@
       </c>
       <c r="G2" s="58"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -5656,7 +5732,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="108" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7" ht="104" x14ac:dyDescent="0.2">
       <c r="B4" s="47" t="s">
         <v>199</v>
       </c>
@@ -5676,7 +5752,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="81" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7" ht="78" x14ac:dyDescent="0.2">
       <c r="B5" s="28"/>
       <c r="C5" s="26">
         <v>22</v>
@@ -5694,7 +5770,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7" ht="117" x14ac:dyDescent="0.2">
       <c r="B6" s="28"/>
       <c r="C6" s="26">
         <v>23</v>
@@ -5712,7 +5788,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="108" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7" ht="104" x14ac:dyDescent="0.2">
       <c r="B7" s="28"/>
       <c r="C7" s="26">
         <v>24</v>
@@ -5730,7 +5806,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="81" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:7" ht="78" x14ac:dyDescent="0.2">
       <c r="B8" s="28"/>
       <c r="C8" s="26">
         <v>25</v>
@@ -5748,7 +5824,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="189" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:7" ht="195" x14ac:dyDescent="0.2">
       <c r="B9" s="28"/>
       <c r="C9" s="26">
         <v>26</v>
@@ -5766,7 +5842,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:7" ht="91" x14ac:dyDescent="0.2">
       <c r="B10" s="28"/>
       <c r="C10" s="26">
         <v>27</v>
@@ -5784,7 +5860,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:7" ht="91" x14ac:dyDescent="0.2">
       <c r="B11" s="28"/>
       <c r="C11" s="26">
         <v>28</v>
@@ -5802,7 +5878,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:7" ht="91" x14ac:dyDescent="0.2">
       <c r="B12" s="26"/>
       <c r="C12" s="26">
         <v>29</v>

--- a/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/05_ユーザー管理.xlsx
+++ b/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/05_ユーザー管理.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\13.Git\TeamCafeAuLait\01_document\04_ソフトウェア実装プロセス\01_ソフトウェア要件定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoji\Documents\TeamCafeAuLait\01_document\04_ソフトウェア実装プロセス\01_ソフトウェア要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="213">
   <si>
     <t>1.機能概要</t>
     <rPh sb="2" eb="4">
@@ -1001,46 +1001,6 @@
     </rPh>
     <rPh sb="24" eb="25">
       <t>シル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(1)最初に入力したパスワードと差異がある場合は、テキストボックスの背景色を赤色にし、確認用パスワード下部に「入力されたパスワードが異なります。」テキストを表示する。</t>
-    <rPh sb="3" eb="5">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="34" eb="37">
-      <t>ハイケイショク</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>アカイロ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>カブ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1941,93 +1901,6 @@
     </rPh>
     <rPh sb="49" eb="51">
       <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今月度コーヒー
-購入合計</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コーヒーチケット残数</t>
-    <rPh sb="8" eb="10">
-      <t>ザンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー
-登録番号</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山田 翔史</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマダ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>999999枚</t>
-    <rPh sb="6" eb="7">
-      <t>マイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0枚</t>
-    <rPh sb="1" eb="2">
-      <t>マイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初期画面</t>
-    <rPh sb="0" eb="2">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(1)削除のオペレーション</t>
-    <rPh sb="3" eb="5">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①行の選択</t>
-    <rPh sb="1" eb="2">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>②削除ボタンを実行</t>
-    <rPh sb="1" eb="3">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2355,37 +2228,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(1)上記表のNo4の一覧表内にユーザー情報がない時、削除ボタンは押下できなくなる。(改定A-22)</t>
-    <rPh sb="3" eb="5">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>イチランヒョウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>シタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(1)ユーザー情報内のセルをクリックした場合、その行全体が選択状態となる。(セル全体の背景色を水色系にする。[簡易画面イメージ(ユーザー管理)]シート(1)の①)を参照)(改定A-23)</t>
     <rPh sb="7" eb="9">
       <t>ジョウホウ</t>
@@ -2517,25 +2359,276 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(改定A-29)</t>
-  </si>
-  <si>
-    <t>尾添 玲奈</t>
+    <t>改訂E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第五回レビュー指摘対応</t>
     <rPh sb="0" eb="2">
-      <t>オゾエ</t>
-    </rPh>
+      <t>ダイゴ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[追加]
+(*3)(1)背景色を赤色にするの記述
+</t>
+    <rPh sb="1" eb="3">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ハイケイショク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>アカイロ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[追加]
+下記に確認メッセージを表示するので不要と判断し、左記記述を削除。</t>
+    <rPh sb="1" eb="3">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[ユーザー管理]
+(*2)(1)ユーザー情報がない時
+</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ユーザー管理]
+(*2)(1)管理者情報しかない時に変更</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[概要]
+記載なし。
+</t>
+    <rPh sb="1" eb="3">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[概要]
+③を追加。</t>
+    <rPh sb="1" eb="3">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)最初に入力したパスワードと差異がある場合は、確認用パスワード下部に「入力されたパスワードが異なります。」テキストを表示する。(改訂E-1)</t>
     <rPh sb="3" eb="5">
-      <t>レナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>永井 健二</t>
-    <rPh sb="0" eb="2">
-      <t>ナガイ</t>
-    </rPh>
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カブ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>カイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)上記表のNo4の一覧表内に管理者情報しかない時、削除ボタンは押下できなくなる。(改定A-22)(改定E-2)</t>
     <rPh sb="3" eb="5">
-      <t>ケンジ</t>
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>イチランヒョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　③管理者ユーザーは一名のみである。(改訂E-3)</t>
+    <rPh sb="3" eb="6">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イチメイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー外変更</t>
+    <rPh sb="4" eb="5">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[簡易画面イメージ(ユーザー管理)]
+イメージの差し替え。
+</t>
+    <rPh sb="1" eb="3">
+      <t>カンイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[簡易画面イメージ(ユーザー管理)]
+イメージの差し替え。</t>
+    <rPh sb="1" eb="3">
+      <t>カンイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(改定A-29)(改定F-1)</t>
+    <rPh sb="9" eb="11">
+      <t>カイテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2543,11 +2636,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="176" formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2591,7 +2680,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2607,12 +2696,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2720,7 +2803,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2788,9 +2871,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -2826,33 +2906,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2897,6 +2956,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2917,1037 +2988,28 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="グループ化 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D12496A-40DB-458E-9A2D-5A543E5A5A87}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="787401" y="581025"/>
-          <a:ext cx="4565649" cy="1819275"/>
-          <a:chOff x="838201" y="619125"/>
-          <a:chExt cx="4962524" cy="1943100"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="正方形/長方形 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D89C415-6285-40A4-BF5E-B20098A2DE92}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="838201" y="619125"/>
-            <a:ext cx="4962524" cy="1943100"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="テキスト ボックス 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF2D1325-FF92-40BA-A62E-46B04C3C742D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="895350" y="685800"/>
-            <a:ext cx="1066800" cy="275717"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>ユーザー管理</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="正方形/長方形 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{108E3EA9-FE0A-4F42-8CC9-C9A7BDFE8564}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5210175" y="676275"/>
-            <a:ext cx="504825" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>追加</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="正方形/長方形 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{011E4177-6110-4330-9E0E-9E3E46BA6CCD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1390650" y="2190751"/>
-            <a:ext cx="485775" cy="247650"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>削除</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="正方形/長方形 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B67FDF0-2410-434E-9191-7B8BC385D6FE}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5257801" y="2257425"/>
-            <a:ext cx="457199" cy="257175"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="7030A0"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>戻る</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="9" name="グループ化 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C4BA97D-E87B-4146-B47F-D3C3666C2E10}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="777876" y="3006725"/>
-          <a:ext cx="4575174" cy="1825625"/>
-          <a:chOff x="838201" y="619125"/>
-          <a:chExt cx="4962524" cy="1943100"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="正方形/長方形 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD7AB1E4-5212-408E-AB31-FDE8524B9A3C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="838201" y="619125"/>
-            <a:ext cx="4962524" cy="1943100"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="テキスト ボックス 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CF99A7E-5253-41F3-9355-BDD031DA2F6A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="895350" y="685800"/>
-            <a:ext cx="1066800" cy="275717"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>ユーザー管理</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="正方形/長方形 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB015D17-E08E-4E0A-BC40-CACF9D594619}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5210175" y="676275"/>
-            <a:ext cx="504825" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>追加</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="正方形/長方形 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32C3DF1E-0A11-466E-9A1A-F418A474EBBD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1390650" y="2190751"/>
-            <a:ext cx="485775" cy="247650"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>削除</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="正方形/長方形 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E25A087-EAC6-497A-8945-BFEB977A3CE4}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5257801" y="2257425"/>
-            <a:ext cx="457199" cy="257175"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="7030A0"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>戻る</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1314450</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線コネクタ 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95E04FC8-845C-477C-8BC7-13882574F2E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4857750" y="3495675"/>
-          <a:ext cx="2057400" cy="866775"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1733550" cy="800100"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキスト ボックス 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E78879FE-82C4-420B-BB03-990B57ECBC30}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6324600" y="3124200"/>
-          <a:ext cx="1733550" cy="800100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>選択した際、このような表示になる。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="18" name="グループ化 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4748ED85-BBBA-4890-AF0E-5FC4A02ABE8C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="796925" y="5299075"/>
-          <a:ext cx="4565650" cy="1752600"/>
-          <a:chOff x="838201" y="619125"/>
-          <a:chExt cx="4962524" cy="1943100"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="正方形/長方形 18">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C37000FF-75BA-42F8-AF51-C9470D865C79}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="838201" y="619125"/>
-            <a:ext cx="4962524" cy="1943100"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="テキスト ボックス 19">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1ABA0EF3-F82B-44C6-A4A3-F322BA6E152C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="895350" y="685800"/>
-            <a:ext cx="1066800" cy="275717"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>ユーザー管理</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="正方形/長方形 20">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5536755C-D1A9-4FEE-A849-58E1AF15BF92}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5210175" y="676274"/>
-            <a:ext cx="504825" cy="297934"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>追加</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="正方形/長方形 21">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F252B70-32CD-48AB-99F5-0139FC8C4083}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1390650" y="2190752"/>
-            <a:ext cx="485775" cy="253111"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>削除</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="正方形/長方形 22">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{477FC15B-6481-4A5F-BA15-9F0A7486D005}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5257801" y="2247562"/>
-            <a:ext cx="457199" cy="265346"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="7030A0"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>戻る</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>550164</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>36671</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>36672</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3974,18 +3036,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>394589</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>157321</xdr:rowOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4274,42 +3342,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="3" customWidth="1"/>
     <col min="2" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4325,33 +3402,33 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="3" customWidth="1"/>
     <col min="2" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -4370,55 +3447,55 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="K19" sqref="J13:K19"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
@@ -4432,7 +3509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B11" s="7">
         <f>ROW()-10</f>
         <v>1</v>
@@ -4447,22 +3524,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" s="7">
         <f t="shared" ref="B12:B15" si="0">ROW()-10</f>
         <v>2</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B13" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4470,20 +3547,20 @@
       <c r="C13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>200</v>
+      <c r="D13" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>29</v>
@@ -4492,23 +3569,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>121</v>
-      </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -4516,9 +3593,9 @@
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -4527,7 +3604,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -4535,9 +3612,9 @@
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
@@ -4546,9 +3623,9 @@
       <c r="F19" s="8"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="8"/>
@@ -4556,7 +3633,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -4564,53 +3641,53 @@
       <c r="F21" s="8"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B26" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B28" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B31" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B33" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C35" s="6" t="s">
         <v>51</v>
       </c>
@@ -4621,31 +3698,31 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="26" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" ht="27" x14ac:dyDescent="0.15">
       <c r="C36" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="33" t="s">
-        <v>203</v>
+      <c r="D36" s="32" t="s">
+        <v>191</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C37" s="10" t="s">
         <v>54</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C38" s="34" t="s">
-        <v>204</v>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C38" s="33" t="s">
+        <v>192</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>50</v>
@@ -4654,7 +3731,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C39" s="10" t="s">
         <v>48</v>
       </c>
@@ -4676,48 +3753,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.36328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="41.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
         <v>63</v>
       </c>
@@ -4725,13 +3802,13 @@
         <v>62</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" s="7">
         <f t="shared" ref="B10:B20" si="0">ROW()-9</f>
         <v>1</v>
@@ -4746,7 +3823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4761,7 +3838,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4773,16 +3850,16 @@
         <v>31</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>205</v>
+      <c r="C13" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>61</v>
@@ -4791,7 +3868,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4803,10 +3880,10 @@
         <v>67</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4821,7 +3898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4833,10 +3910,10 @@
         <v>72</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B17" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4851,7 +3928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B18" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4863,10 +3940,10 @@
         <v>82</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B19" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4881,7 +3958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B20" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4893,10 +3970,10 @@
         <v>74</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B21" s="13"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -4904,17 +3981,17 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C26" s="10"/>
       <c r="D26" s="6" t="s">
         <v>36</v>
@@ -4925,11 +4002,11 @@
       <c r="F26" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G26" s="22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C27" s="10" t="s">
         <v>32</v>
       </c>
@@ -4942,11 +4019,11 @@
       <c r="F27" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="34" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G27" s="33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C28" s="10" t="s">
         <v>33</v>
       </c>
@@ -4959,27 +4036,27 @@
       <c r="F28" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="34" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G28" s="33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -4987,28 +4064,28 @@
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B33" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
@@ -5016,45 +4093,45 @@
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C39" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B40" s="13"/>
       <c r="C40" s="6" t="s">
         <v>87</v>
@@ -5069,16 +4146,16 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
@@ -5086,14 +4163,14 @@
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
         <v>92</v>
       </c>
@@ -5103,14 +4180,14 @@
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C46" s="10"/>
       <c r="D46" s="6" t="s">
         <v>36</v>
@@ -5121,11 +4198,11 @@
       <c r="F46" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G46" s="23" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G46" s="22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C47" s="10" t="s">
         <v>32</v>
       </c>
@@ -5138,11 +4215,11 @@
       <c r="F47" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G47" s="34" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G47" s="33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C48" s="10" t="s">
         <v>77</v>
       </c>
@@ -5155,20 +4232,20 @@
       <c r="F48" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G48" s="34" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G48" s="33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
@@ -5176,16 +4253,16 @@
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
@@ -5193,9 +4270,9 @@
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
@@ -5203,16 +4280,16 @@
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B55" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
@@ -5220,9 +4297,9 @@
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
@@ -5230,16 +4307,16 @@
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
@@ -5247,9 +4324,9 @@
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
@@ -5257,14 +4334,14 @@
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B63" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
@@ -5287,27 +4364,27 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="3" customWidth="1"/>
-    <col min="2" max="2" width="43.7265625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.08984375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="44"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B2" s="36"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
@@ -5324,64 +4401,64 @@
         <v>16</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="47" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="55" t="s">
+      <c r="F4" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="46"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+      <c r="B6" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="F4" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" s="50" t="s">
+      <c r="F6" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="54"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="39" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="78" x14ac:dyDescent="0.2">
-      <c r="B6" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="18" t="s">
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="B7" s="17" t="s">
         <v>103</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="H6" s="46"/>
-    </row>
-    <row r="7" spans="1:8" ht="52" x14ac:dyDescent="0.2">
-      <c r="B7" s="17" t="s">
-        <v>104</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>12</v>
@@ -5390,21 +4467,21 @@
         <v>13</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H7" s="45" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="52" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="B8" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>12</v>
@@ -5413,53 +4490,53 @@
         <v>18</v>
       </c>
       <c r="E8" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="C9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="65" x14ac:dyDescent="0.2">
-      <c r="B9" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="12" t="s">
+    <row r="10" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="B10" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="52" x14ac:dyDescent="0.2">
-      <c r="B10" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5478,203 +4555,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView showGridLines="0" topLeftCell="A80" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="39" customWidth="1"/>
-    <col min="2" max="2" width="9" style="39"/>
-    <col min="3" max="3" width="9" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="39"/>
-    <col min="6" max="6" width="18.453125" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="39"/>
+    <col min="1" max="1" width="9" style="34" customWidth="1"/>
+    <col min="2" max="2" width="9" style="34"/>
+    <col min="3" max="3" width="9" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="34"/>
+    <col min="6" max="6" width="18.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="39" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="39" x14ac:dyDescent="0.2">
-      <c r="C7" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C8" s="41">
-        <v>1</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8" s="42">
-        <v>999999</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C9" s="41">
-        <v>2</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="E9" s="42">
-        <v>0</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C10" s="41">
-        <v>3</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="E10" s="42">
-        <v>999999</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="39" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="39" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="39" x14ac:dyDescent="0.2">
-      <c r="C20" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="41">
-        <v>1</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="E21" s="42">
-        <v>999999</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C22" s="35">
-        <v>2</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="E22" s="37">
-        <v>0</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C23" s="41">
-        <v>3</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="E23" s="42">
-        <v>999999</v>
-      </c>
-      <c r="F23" s="43" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="39" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" ht="39" x14ac:dyDescent="0.2">
-      <c r="C33" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C34" s="41">
-        <v>1</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="E34" s="42">
-        <v>999999</v>
-      </c>
-      <c r="F34" s="43" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C35" s="41">
-        <v>3</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="E35" s="42">
-        <v>999999</v>
-      </c>
-      <c r="F35" s="43" t="s">
-        <v>171</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -5687,213 +4590,289 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G12"/>
+  <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="4" max="4" width="22.36328125" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" customWidth="1"/>
-    <col min="6" max="6" width="26.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.6328125" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="F2" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="G2" s="50"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="G2" s="58"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27" t="s">
+      <c r="G3" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="G3" s="27" t="s">
+    </row>
+    <row r="4" spans="2:7" ht="108" x14ac:dyDescent="0.15">
+      <c r="B4" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="25">
+        <v>21</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" ht="104" x14ac:dyDescent="0.2">
-      <c r="B4" s="47" t="s">
+      <c r="E4" s="28">
+        <v>42859</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="B5" s="27"/>
+      <c r="C5" s="25">
+        <v>22</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="30">
+        <v>42859</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="27"/>
+      <c r="C6" s="25">
+        <v>23</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="28">
+        <v>42859</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="108" x14ac:dyDescent="0.15">
+      <c r="B7" s="27"/>
+      <c r="C7" s="25">
+        <v>24</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="30">
+        <v>42859</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="B8" s="27"/>
+      <c r="C8" s="25">
+        <v>25</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="30">
+        <v>42859</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="189" x14ac:dyDescent="0.15">
+      <c r="B9" s="27"/>
+      <c r="C9" s="25">
+        <v>26</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="30">
+        <v>42859</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="27"/>
+      <c r="C10" s="25">
+        <v>27</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="30">
+        <v>42859</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B11" s="27"/>
+      <c r="C11" s="25">
+        <v>28</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="30">
+        <v>42859</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25">
+        <v>29</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="30">
+        <v>42859</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="25">
+        <v>1</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" s="30">
+        <v>42926</v>
+      </c>
+      <c r="F13" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="26">
-        <v>21</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4" s="29">
-        <v>42859</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="78" x14ac:dyDescent="0.2">
-      <c r="B5" s="28"/>
-      <c r="C5" s="26">
-        <v>22</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="31">
-        <v>42859</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="117" x14ac:dyDescent="0.2">
-      <c r="B6" s="28"/>
-      <c r="C6" s="26">
-        <v>23</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" s="29">
-        <v>42859</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="104" x14ac:dyDescent="0.2">
-      <c r="B7" s="28"/>
-      <c r="C7" s="26">
-        <v>24</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="E7" s="31">
-        <v>42859</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="78" x14ac:dyDescent="0.2">
-      <c r="B8" s="28"/>
-      <c r="C8" s="26">
-        <v>25</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" s="31">
-        <v>42859</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="195" x14ac:dyDescent="0.2">
-      <c r="B9" s="28"/>
-      <c r="C9" s="26">
-        <v>26</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" s="31">
-        <v>42859</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="91" x14ac:dyDescent="0.2">
-      <c r="B10" s="28"/>
-      <c r="C10" s="26">
-        <v>27</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="E10" s="31">
-        <v>42859</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="30" t="s">
+      <c r="G13" s="29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="B14" s="39"/>
+      <c r="C14" s="25">
+        <v>2</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" ht="91" x14ac:dyDescent="0.2">
-      <c r="B11" s="28"/>
-      <c r="C11" s="26">
-        <v>28</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="E11" s="31">
-        <v>42859</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="91" x14ac:dyDescent="0.2">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26">
-        <v>29</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="E12" s="31">
-        <v>42859</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>194</v>
+      <c r="E14" s="30">
+        <v>42926</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="B15" s="52"/>
+      <c r="C15" s="25">
+        <v>3</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" s="30">
+        <v>42926</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="25">
+        <v>1</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" s="30">
+        <v>42935</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/05_ユーザー管理.xlsx
+++ b/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/05_ユーザー管理.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -2322,22 +2322,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ID(英数字20文字以内)(改定A-26)</t>
-    <rPh sb="3" eb="6">
-      <t>エイスウジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イナイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カイテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(改定A-27)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2632,11 +2616,18 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ID(改定A-26)</t>
+    <rPh sb="3" eb="5">
+      <t>カイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2924,6 +2915,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2956,18 +2959,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3341,7 +3332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3381,7 +3372,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -3395,7 +3386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3443,7 +3434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
@@ -3648,7 +3639,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B23" s="34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
@@ -3750,11 +3741,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3859,7 +3850,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>61</v>
@@ -4102,10 +4093,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B37" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
+        <v>204</v>
+      </c>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
@@ -4357,7 +4348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4405,34 +4396,34 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="46" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="46"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="42"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="81" x14ac:dyDescent="0.15">
@@ -4476,7 +4467,7 @@
         <v>132</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -4554,7 +4545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A80" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
@@ -4574,10 +4565,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -4589,7 +4580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:G16"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
@@ -4618,10 +4609,10 @@
       <c r="E2" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="G2" s="50"/>
+      <c r="G2" s="54"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" s="25"/>
@@ -4800,23 +4791,23 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="51" t="s">
-        <v>197</v>
+      <c r="B13" s="40" t="s">
+        <v>196</v>
       </c>
       <c r="C13" s="25">
         <v>1</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E13" s="30">
         <v>42926</v>
       </c>
       <c r="F13" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="29" t="s">
         <v>199</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="81" x14ac:dyDescent="0.15">
@@ -4825,54 +4816,54 @@
         <v>2</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E14" s="30">
         <v>42926</v>
       </c>
       <c r="F14" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="G14" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="G14" s="29" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="15" spans="2:7" ht="81" x14ac:dyDescent="0.15">
-      <c r="B15" s="52"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="25">
         <v>3</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E15" s="30">
         <v>42926</v>
       </c>
       <c r="F15" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="G15" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="G15" s="29" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="16" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="54" t="s">
-        <v>208</v>
+      <c r="B16" s="43" t="s">
+        <v>207</v>
       </c>
       <c r="C16" s="25">
         <v>1</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E16" s="30">
         <v>42935</v>
       </c>
       <c r="F16" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="29" t="s">
         <v>210</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
